--- a/core/seed_customers_customer.xlsx
+++ b/core/seed_customers_customer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.cheng\Documents\Visual Studio Code\Django\p_sys01_repo01\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1F8D39-F2BA-4E9E-94E2-7C683047638A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8187589-BF57-4AEF-BE07-8C3B4C4B3F06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>FIRST NAME</t>
   </si>
@@ -95,6 +95,30 @@
   </si>
   <si>
     <t>PATIENT</t>
+  </si>
+  <si>
+    <t>CUSTOMER ID</t>
+  </si>
+  <si>
+    <t>cust 01</t>
+  </si>
+  <si>
+    <t>cust 02</t>
+  </si>
+  <si>
+    <t>cust 03</t>
+  </si>
+  <si>
+    <t>cust 04</t>
+  </si>
+  <si>
+    <t>cust 05</t>
+  </si>
+  <si>
+    <t>cust 06</t>
+  </si>
+  <si>
+    <t>cust 07</t>
   </si>
 </sst>
 </file>
@@ -935,123 +959,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>24</v>
       </c>
     </row>

--- a/core/seed_customers_customer.xlsx
+++ b/core/seed_customers_customer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.cheng\Documents\Visual Studio Code\Django\p_sys01_repo01\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8187589-BF57-4AEF-BE07-8C3B4C4B3F06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D9C380-ABC7-4787-8D7D-24710534AE4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="120">
   <si>
     <t>FIRST NAME</t>
   </si>
@@ -34,63 +34,6 @@
     <t>CATEGORY</t>
   </si>
   <si>
-    <t>Cust F 01</t>
-  </si>
-  <si>
-    <t>Cust F 02</t>
-  </si>
-  <si>
-    <t>Cust F 03</t>
-  </si>
-  <si>
-    <t>Cust F 04</t>
-  </si>
-  <si>
-    <t>Cust F 05</t>
-  </si>
-  <si>
-    <t>Cust F 06</t>
-  </si>
-  <si>
-    <t>Cust F 07</t>
-  </si>
-  <si>
-    <t>Last F 01</t>
-  </si>
-  <si>
-    <t>Last F 02</t>
-  </si>
-  <si>
-    <t>Last F 03</t>
-  </si>
-  <si>
-    <t>Last F 04</t>
-  </si>
-  <si>
-    <t>Last F 05</t>
-  </si>
-  <si>
-    <t>Last F 06</t>
-  </si>
-  <si>
-    <t>Last F 07</t>
-  </si>
-  <si>
-    <t>Middle F 01</t>
-  </si>
-  <si>
-    <t>Middle F 02</t>
-  </si>
-  <si>
-    <t>Middle F 04</t>
-  </si>
-  <si>
-    <t>Middle F 05</t>
-  </si>
-  <si>
-    <t>Middle F 07</t>
-  </si>
-  <si>
     <t>RETAIL</t>
   </si>
   <si>
@@ -100,25 +43,343 @@
     <t>CUSTOMER ID</t>
   </si>
   <si>
-    <t>cust 01</t>
-  </si>
-  <si>
-    <t>cust 02</t>
-  </si>
-  <si>
-    <t>cust 03</t>
-  </si>
-  <si>
-    <t>cust 04</t>
-  </si>
-  <si>
-    <t>cust 05</t>
-  </si>
-  <si>
-    <t>cust 06</t>
-  </si>
-  <si>
-    <t>cust 07</t>
+    <t>Brain</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>Dewayne</t>
+  </si>
+  <si>
+    <t>Effie</t>
+  </si>
+  <si>
+    <t>Bud</t>
+  </si>
+  <si>
+    <t>Aida</t>
+  </si>
+  <si>
+    <t>Bobbie</t>
+  </si>
+  <si>
+    <t>Nellie</t>
+  </si>
+  <si>
+    <t>Zelma</t>
+  </si>
+  <si>
+    <t>Gonzalo</t>
+  </si>
+  <si>
+    <t>Steele</t>
+  </si>
+  <si>
+    <t>Campbell</t>
+  </si>
+  <si>
+    <t>Walsh</t>
+  </si>
+  <si>
+    <t>Mcknight</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>Carr</t>
+  </si>
+  <si>
+    <t>Ashley</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>Villanueva</t>
+  </si>
+  <si>
+    <t>Cobb</t>
+  </si>
+  <si>
+    <t>Gino</t>
+  </si>
+  <si>
+    <t>Larry</t>
+  </si>
+  <si>
+    <t>Rodney</t>
+  </si>
+  <si>
+    <t>Delmar</t>
+  </si>
+  <si>
+    <t>Mona</t>
+  </si>
+  <si>
+    <t>Tracey</t>
+  </si>
+  <si>
+    <t>Jewel</t>
+  </si>
+  <si>
+    <t>Shana</t>
+  </si>
+  <si>
+    <t>Emil</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Vicki</t>
+  </si>
+  <si>
+    <t>Billie</t>
+  </si>
+  <si>
+    <t>Floyd</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Sylvester</t>
+  </si>
+  <si>
+    <t>Stephanie</t>
+  </si>
+  <si>
+    <t>Jessie</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>Dillon</t>
+  </si>
+  <si>
+    <t>Hurst</t>
+  </si>
+  <si>
+    <t>Arellano</t>
+  </si>
+  <si>
+    <t>Bird</t>
+  </si>
+  <si>
+    <t>Alvarez</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Ortiz</t>
+  </si>
+  <si>
+    <t>Franco</t>
+  </si>
+  <si>
+    <t>Henderson</t>
+  </si>
+  <si>
+    <t>Hurley</t>
+  </si>
+  <si>
+    <t>Atkins</t>
+  </si>
+  <si>
+    <t>Cunningham</t>
+  </si>
+  <si>
+    <t>Mccann</t>
+  </si>
+  <si>
+    <t>Shea</t>
+  </si>
+  <si>
+    <t>Hansen</t>
+  </si>
+  <si>
+    <t>Wilkerson</t>
+  </si>
+  <si>
+    <t>Estes</t>
+  </si>
+  <si>
+    <t>Burns</t>
+  </si>
+  <si>
+    <t>Cordova</t>
+  </si>
+  <si>
+    <t>Medina</t>
+  </si>
+  <si>
+    <t>Maldonado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kaiser</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Miles</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hobbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pineda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boone</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lambert</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bean</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Walker</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Esparza</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pope</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Holt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Johnston</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hooper</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Duffy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zhang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bullock</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Richmond</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pratt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hart</t>
+  </si>
+  <si>
+    <t>WHOLESALE</t>
+  </si>
+  <si>
+    <t>GOVERNMENT</t>
+  </si>
+  <si>
+    <t>CORPORATE</t>
+  </si>
+  <si>
+    <t>CUST-ID-01</t>
+  </si>
+  <si>
+    <t>CUST-ID-02</t>
+  </si>
+  <si>
+    <t>CUST-ID-03</t>
+  </si>
+  <si>
+    <t>CUST-ID-04</t>
+  </si>
+  <si>
+    <t>CUST-ID-05</t>
+  </si>
+  <si>
+    <t>CUST-ID-06</t>
+  </si>
+  <si>
+    <t>CUST-ID-07</t>
+  </si>
+  <si>
+    <t>CUST-ID-08</t>
+  </si>
+  <si>
+    <t>CUST-ID-09</t>
+  </si>
+  <si>
+    <t>CUST-ID-10</t>
+  </si>
+  <si>
+    <t>CUST-ID-11</t>
+  </si>
+  <si>
+    <t>CUST-ID-12</t>
+  </si>
+  <si>
+    <t>CUST-ID-13</t>
+  </si>
+  <si>
+    <t>CUST-ID-14</t>
+  </si>
+  <si>
+    <t>CUST-ID-15</t>
+  </si>
+  <si>
+    <t>CUST-ID-16</t>
+  </si>
+  <si>
+    <t>CUST-ID-17</t>
+  </si>
+  <si>
+    <t>CUST-ID-18</t>
+  </si>
+  <si>
+    <t>CUST-ID-19</t>
+  </si>
+  <si>
+    <t>CUST-ID-20</t>
+  </si>
+  <si>
+    <t>CUST-ID-21</t>
+  </si>
+  <si>
+    <t>CUST-ID-22</t>
+  </si>
+  <si>
+    <t>CUST-ID-23</t>
+  </si>
+  <si>
+    <t>CUST-ID-24</t>
+  </si>
+  <si>
+    <t>CUST-ID-25</t>
+  </si>
+  <si>
+    <t>CUST-ID-26</t>
+  </si>
+  <si>
+    <t>CUST-ID-27</t>
+  </si>
+  <si>
+    <t>CUST-ID-28</t>
+  </si>
+  <si>
+    <t>CUST-ID-29</t>
+  </si>
+  <si>
+    <t>CUST-ID-30</t>
   </si>
 </sst>
 </file>
@@ -959,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,7 +1237,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -993,115 +1254,482 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
